--- a/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
+++ b/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafspace\Documents\GitHub\Handmade-mom\03. 项目资料\001. 项目文档\003. 项目文档\001. 设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93ACB63-8A2D-4077-9624-07051E337E74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B13488-2C74-48D6-AAEE-194E45511694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>手工妈妈后台参数映射表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,10 +74,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goodsTitleText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goodsId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请求目录</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HandMadeMom/home/getBannerImage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,7 +118,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>page</t>
+    <t>HandMadeMom/home/addCart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsTitle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsSpec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Client-&gt;Server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Server-&gt;Client</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -170,7 +194,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -178,32 +202,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -520,242 +651,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF3F150-300A-4E27-8A5A-074A0AEB09C3}">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
-    <col min="6" max="6" width="35.5" customWidth="1"/>
-    <col min="7" max="7" width="10.5" customWidth="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="35.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="K12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:R3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A5:B19"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F7:F10"/>
-    <mergeCell ref="C7:C10"/>
+  <mergeCells count="11">
+    <mergeCell ref="A6:B17"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="F8:H11"/>
+    <mergeCell ref="F12:H17"/>
+    <mergeCell ref="A1:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
+++ b/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafspace\Documents\GitHub\Handmade-mom\03. 项目资料\001. 项目文档\003. 项目文档\001. 设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B13488-2C74-48D6-AAEE-194E45511694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B65060-82AD-4F99-A670-C1B8C10C9F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
   </bookViews>
@@ -302,36 +302,36 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,7 +654,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,66 +670,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="4" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="4"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -740,40 +740,40 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="6" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="6"/>
+      <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="16" t="s">
@@ -781,37 +781,37 @@
       </c>
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="16" t="s">
@@ -819,164 +819,164 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="9" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="16" t="s">
         <v>22</v>
       </c>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="6"/>
+      <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="7"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
       <c r="H13" s="16"/>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="J13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="6"/>
+      <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="7"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="J14" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="6"/>
+      <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
       <c r="F15" s="16"/>
       <c r="G15" s="16"/>
       <c r="H15" s="16"/>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="J15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="6"/>
+      <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="7"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
       <c r="H16" s="16"/>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="6"/>
+      <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
       <c r="H17" s="16"/>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="6"/>
+      <c r="K17" s="5"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
@@ -992,17 +992,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="F6:H7"/>
+    <mergeCell ref="F8:H11"/>
+    <mergeCell ref="F12:H17"/>
+    <mergeCell ref="A1:K3"/>
     <mergeCell ref="A6:B17"/>
     <mergeCell ref="F4:H5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="F8:H11"/>
-    <mergeCell ref="F12:H17"/>
-    <mergeCell ref="A1:K3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
+++ b/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafspace\Documents\GitHub\Handmade-mom\03. 项目资料\001. 项目文档\003. 项目文档\001. 设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B65060-82AD-4F99-A670-C1B8C10C9F12}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18082195-D48F-41D6-8C50-7CFEB6CF292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
   </bookViews>
@@ -307,6 +307,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -329,12 +335,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,7 +654,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F12" sqref="F12:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -670,65 +670,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="8" t="s">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="15" t="s">
+      <c r="G4" s="11"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="15"/>
+      <c r="J4" s="7"/>
       <c r="K4" s="4"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -740,8 +740,8 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="5" t="s">
         <v>4</v>
       </c>
@@ -751,9 +751,9 @@
       <c r="E5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="5" t="s">
         <v>21</v>
       </c>
@@ -763,11 +763,11 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="9"/>
+      <c r="C6" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="6" t="s">
@@ -776,36 +776,36 @@
       <c r="E6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="14"/>
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="6" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="6" t="s">
@@ -814,77 +814,77 @@
       <c r="E8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="I8" s="6"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="14"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="5"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="I12" s="6" t="s">
         <v>11</v>
       </c>
@@ -894,14 +894,14 @@
       <c r="K12" s="5"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="I13" s="6" t="s">
         <v>24</v>
       </c>
@@ -911,14 +911,14 @@
       <c r="K13" s="5"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="6" t="s">
         <v>25</v>
       </c>
@@ -928,14 +928,14 @@
       <c r="K14" s="5"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
       <c r="I15" s="6" t="s">
         <v>23</v>
       </c>
@@ -945,14 +945,14 @@
       <c r="K15" s="5"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
       <c r="I16" s="6" t="s">
         <v>10</v>
       </c>
@@ -962,14 +962,14 @@
       <c r="K16" s="5"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
       <c r="I17" s="6" t="s">
         <v>9</v>
       </c>

--- a/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
+++ b/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafspace\Documents\GitHub\Handmade-mom\03. 项目资料\001. 项目文档\003. 项目文档\001. 设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18082195-D48F-41D6-8C50-7CFEB6CF292C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E85AB9-920C-4AC1-B18E-DEF6C627A78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>手工妈妈后台参数映射表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>goodsNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>goodsSpec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -146,11 +142,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>产品说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品数量</t>
+    <t>goodsInfo</t>
+  </si>
+  <si>
+    <t>targetUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imgUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsFreightPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsRemainNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsDetailsText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsTotorialText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandMadeMom/details/getGoodsInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品余量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品描述（文本）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作教程（文本）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品描述（媒体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制作教程（媒体）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsDetailsVedioUrls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsTotorialVedioUrls</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -194,7 +253,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -279,13 +338,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -295,9 +409,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -307,6 +418,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -316,25 +430,64 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -651,20 +804,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF3F150-300A-4E27-8A5A-074A0AEB09C3}">
-  <dimension ref="A1:S20"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:H17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="15.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="35.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="5" width="21" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="27"/>
+    <col min="7" max="7" width="35.5" style="27" customWidth="1"/>
+    <col min="8" max="8" width="10.5" style="27" customWidth="1"/>
     <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
@@ -716,20 +868,20 @@
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
+      <c r="F4" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J4" s="7"/>
-      <c r="K4" s="4"/>
+      <c r="K4" s="3"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -742,38 +894,38 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="5" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="5"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="12"/>
+      <c r="C6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -781,37 +933,37 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="6" t="s">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="16" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -819,190 +971,302 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="6" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="6" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="6" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="8" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6" t="s">
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K12" s="5"/>
+      <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="B13" s="9"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="8"/>
+      <c r="C13" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>36</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="C15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
-      <c r="I15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="I15" s="6"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
-      <c r="I16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16" s="5"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I16" s="6"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="5"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C24" s="28"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="15">
+    <mergeCell ref="F13:H23"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="F6:H7"/>
     <mergeCell ref="F8:H11"/>
-    <mergeCell ref="F12:H17"/>
     <mergeCell ref="A1:K3"/>
-    <mergeCell ref="A6:B17"/>
     <mergeCell ref="F4:H5"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="A6:B12"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="A13:B23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
+++ b/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafspace\Documents\GitHub\Handmade-mom\03. 项目资料\001. 项目文档\003. 项目文档\001. 设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E85AB9-920C-4AC1-B18E-DEF6C627A78E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31936910-1869-4E12-9D97-079721326B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>手工妈妈后台参数映射表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +44,6 @@
     <t>imgUrls</t>
   </si>
   <si>
-    <t>页面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据根</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -210,6 +206,126 @@
   </si>
   <si>
     <t>goodsTotorialVedioUrls</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandMadeMom/cart/getCartList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被选中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CartGetCartListServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailsGetGoodsInfoImageServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DetailsGetGoodsInfoServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeAddCartServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeGetBannerImageServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HomeGetRecommendListServlet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求Class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>页面</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备注</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>产品</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>ID</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsSelect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>goodsBuyNum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +333,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +360,29 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -253,7 +392,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -271,68 +410,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -375,120 +452,72 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -804,469 +833,702 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF3F150-300A-4E27-8A5A-074A0AEB09C3}">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="5" width="21" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="27"/>
-    <col min="7" max="7" width="35.5" style="27" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="27" customWidth="1"/>
-    <col min="9" max="9" width="11.375" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="18.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16.875" style="12" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="12" customWidth="1"/>
+    <col min="4" max="5" width="21" style="12" customWidth="1"/>
+    <col min="6" max="6" width="45.125" style="14" customWidth="1"/>
+    <col min="7" max="7" width="19.125" style="14" customWidth="1"/>
+    <col min="8" max="8" width="11.375" style="12" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="18" t="s">
+      <c r="C5" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+    </row>
+    <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+    </row>
+    <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="4" t="s">
+      <c r="C15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+    </row>
+    <row r="16" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+    </row>
+    <row r="19" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+    </row>
+    <row r="20" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+    </row>
+    <row r="21" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+    </row>
+    <row r="22" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+    </row>
+    <row r="23" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="4"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="G24" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="10" t="s">
+      <c r="F25" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G25" s="9"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="5" t="s">
+      <c r="E29" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="E31" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="28"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+    </row>
+    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+    </row>
+    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+    </row>
+    <row r="35" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+    </row>
+    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="F13:H23"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="F6:H7"/>
-    <mergeCell ref="F8:H11"/>
-    <mergeCell ref="A1:K3"/>
-    <mergeCell ref="F4:H5"/>
+  <mergeCells count="24">
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="A1:I3"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B25:B32"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="C25:C32"/>
+    <mergeCell ref="F25:F32"/>
+    <mergeCell ref="F13:F23"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="A4:B5"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="A6:B12"/>
     <mergeCell ref="C15:C23"/>
     <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A13:B23"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
+++ b/03. 项目资料/001. 项目文档/003. 项目文档/001. 设计文档/手工妈妈后台参数映射表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leafspace\Documents\GitHub\Handmade-mom\03. 项目资料\001. 项目文档\003. 项目文档\001. 设计文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31936910-1869-4E12-9D97-079721326B53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AEBCC28-4792-4ACE-9DDE-5D97C583387B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{4586B3F4-8389-4287-A38B-237788E44BC0}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="67">
   <si>
     <t>手工妈妈后台参数映射表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>goodsBuyNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HandMadeMom/cart/updateCartList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -468,48 +472,51 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,6 +525,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,699 +849,755 @@
   <dimension ref="A1:R36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16.875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="30.125" style="12" customWidth="1"/>
-    <col min="4" max="5" width="21" style="12" customWidth="1"/>
-    <col min="6" max="6" width="45.125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="14" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="12" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="12"/>
+    <col min="1" max="1" width="18.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.875" style="8" customWidth="1"/>
+    <col min="3" max="3" width="29" style="8" customWidth="1"/>
+    <col min="4" max="5" width="20.75" style="8" customWidth="1"/>
+    <col min="6" max="6" width="38.375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.125" style="10" customWidth="1"/>
+    <col min="8" max="9" width="20.75" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="10" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="15" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="11" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="16" t="s">
         <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="16" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A10" s="4"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="9" t="s">
+      <c r="A12" s="15"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:18" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="17" t="s">
         <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" s="6"/>
       <c r="H13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A14" s="4"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="15"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
       <c r="D14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="6"/>
       <c r="H14" s="1"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
+      <c r="A15" s="15"/>
+      <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="17" t="s">
         <v>56</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="6"/>
       <c r="H15" s="1"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="15"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="9"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="4"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="9"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="6"/>
       <c r="H17" s="1"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="6"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
       <c r="D20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F21" s="6"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
       <c r="D22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="E22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="6"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
     </row>
     <row r="23" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
       <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="9" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="4" t="s">
         <v>57</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I24" s="7" t="s">
+      <c r="I24" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
     </row>
     <row r="25" spans="1:12" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="G25" s="9"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1" t="s">
+      <c r="A26" s="15"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="15" t="s">
+      <c r="E26" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="1" t="s">
+      <c r="A27" s="15"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E27" s="15" t="s">
+      <c r="E27" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="1" t="s">
+      <c r="A28" s="15"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="E28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="1" t="s">
+      <c r="A29" s="15"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="15" t="s">
+      <c r="E29" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="1" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E30" s="15" t="s">
+      <c r="E30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1" t="s">
+      <c r="A31" s="15"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E31" s="15" t="s">
+      <c r="E31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="6"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="8"/>
-      <c r="L31" s="8"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="1" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="8"/>
-    </row>
-    <row r="33" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-    </row>
-    <row r="34" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-    </row>
-    <row r="35" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="8"/>
-    </row>
-    <row r="36" spans="10:12" x14ac:dyDescent="0.2">
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="15"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="12"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="15"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="21"/>
+      <c r="H34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="15"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="15"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="26">
+    <mergeCell ref="F34:F36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B34:E36"/>
+    <mergeCell ref="F13:F23"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="C15:C23"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C25:C33"/>
+    <mergeCell ref="F25:F33"/>
+    <mergeCell ref="A13:A24"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B23"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B25:B33"/>
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="G4:I4"/>
     <mergeCell ref="A1:I3"/>
     <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="A25:A32"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B15:B23"/>
-    <mergeCell ref="B25:B32"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="C25:C32"/>
-    <mergeCell ref="F25:F32"/>
-    <mergeCell ref="F13:F23"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C11"/>
-    <mergeCell ref="C15:C23"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
